--- a/src/test/resources/ScrapeData/Recipes_Input.xlsx
+++ b/src/test/resources/ScrapeData/Recipes_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reka\eclipse-workspace\webscrapping\src\test\resources\ScrapeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9E3B1D-0B34-4D95-823E-CA94FDBE4455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9266376-7EDA-4A3D-B1FD-998060E7673B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{F34155E5-6A8B-4E39-8975-29262B9CAC9B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F34155E5-6A8B-4E39-8975-29262B9CAC9B}"/>
   </bookViews>
   <sheets>
     <sheet name="input_list" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="210">
   <si>
     <t>searchinput</t>
   </si>
@@ -263,9 +263,6 @@
     <t>Cheese</t>
   </si>
   <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
     <t>allergy</t>
   </si>
   <si>
@@ -392,9 +389,6 @@
     <t>oats</t>
   </si>
   <si>
-    <t>Hypertension</t>
-  </si>
-  <si>
     <t>Pretzels</t>
   </si>
   <si>
@@ -437,9 +431,6 @@
     <t>salty snacks</t>
   </si>
   <si>
-    <t>Hypothyroidism</t>
-  </si>
-  <si>
     <t>Tofu</t>
   </si>
   <si>
@@ -510,9 +501,6 @@
   </si>
   <si>
     <t>Salad dressings</t>
-  </si>
-  <si>
-    <t>PCos</t>
   </si>
   <si>
     <t>Pizza </t>
@@ -693,7 +681,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,13 +725,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
@@ -829,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -843,21 +824,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1176,7 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D74E77-A9F9-4BA8-B371-4B9151042505}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1200,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1208,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1216,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1229,7 +1209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72BD74B-1EC9-496F-A581-086136459EDA}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -1240,140 +1220,140 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1385,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1DC127-6B0C-4A49-B44A-8D53BF70D374}">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection sqref="A1:A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1395,183 +1375,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
-        <v>86</v>
+      <c r="A1" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="27">
+      <c r="A4" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="27">
+      <c r="A7" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="40.200000000000003">
-      <c r="A4" s="10" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="40.200000000000003">
-      <c r="A7" s="10" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="27">
-      <c r="A8" s="10" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="27">
-      <c r="A11" s="10" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="27">
-      <c r="A12" s="10" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="27">
-      <c r="A13" s="10" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="27">
-      <c r="A14" s="10" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="27">
-      <c r="A16" s="10" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="27">
-      <c r="A18" s="10" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="11" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="11" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="27">
-      <c r="A27" s="10" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="11" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="11" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="10" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="10" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="11" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1593,88 +1573,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
-        <v>86</v>
+      <c r="A1" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="11" t="s">
-        <v>89</v>
+      <c r="A17" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1696,18 +1676,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" thickBot="1">
-      <c r="A1" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="27.6" thickBot="1">
-      <c r="A2" s="13" t="s">
-        <v>203</v>
+      <c r="A1" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1">
+      <c r="A2" s="12" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1717,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CB4410-47B3-4410-A583-00AA5166D96E}">
-  <dimension ref="A1:A71"/>
+  <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1729,357 +1709,352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>72</v>
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2090,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA9DDC7-BC8E-4B10-9298-83D3CC333923}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2102,118 +2077,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
-        <v>115</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>8</v>
+      <c r="A21" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2223,10 +2193,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AA99C9-894E-494E-AFD8-9AD519808B92}">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2235,182 +2205,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
-        <v>130</v>
+      <c r="A1" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2431,76 +2396,76 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.6">
       <c r="A13" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="8"/>
+      <c r="A15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2509,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381C921D-2ED1-425C-AAED-1B4A4A79DA07}">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A28"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2521,143 +2486,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
-        <v>155</v>
+      <c r="A1" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ScrapeData/Recipes_Input.xlsx
+++ b/src/test/resources/ScrapeData/Recipes_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reka\eclipse-workspace\webscrapping\src\test\resources\ScrapeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9266376-7EDA-4A3D-B1FD-998060E7673B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA39B9B-DF64-4E21-B46E-EF8EB70DD74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F34155E5-6A8B-4E39-8975-29262B9CAC9B}"/>
+    <workbookView xWindow="11964" yWindow="948" windowWidth="11076" windowHeight="11292" xr2:uid="{F34155E5-6A8B-4E39-8975-29262B9CAC9B}"/>
   </bookViews>
   <sheets>
     <sheet name="input_list" sheetId="5" r:id="rId1"/>
@@ -560,121 +560,121 @@
     <t>High Blood Pressure</t>
   </si>
   <si>
+    <t>Beetroot</t>
+  </si>
+  <si>
+    <t>Potassium rich foods</t>
+  </si>
+  <si>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>Dark chocolate (50-70%)</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>Pomegranate</t>
+  </si>
+  <si>
+    <t>Cinnamon</t>
+  </si>
+  <si>
+    <t>Pistachios</t>
+  </si>
+  <si>
+    <t>Chia seeds</t>
+  </si>
+  <si>
+    <t>unsalted nuts</t>
+  </si>
+  <si>
+    <t>Low-fat yogurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> blueberries</t>
+  </si>
+  <si>
+    <t>turkey</t>
+  </si>
+  <si>
+    <t>argula</t>
+  </si>
+  <si>
+    <t>cabbage</t>
+  </si>
+  <si>
+    <t>romaine</t>
+  </si>
+  <si>
+    <t>lettuce</t>
+  </si>
+  <si>
+    <t>mustard greens</t>
+  </si>
+  <si>
+    <t>broccoli fennel</t>
+  </si>
+  <si>
+    <t>fennel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kale</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>Avocado</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Sweet potato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High fiber fruits </t>
+  </si>
+  <si>
+    <t>High fiber fruits vegetables</t>
+  </si>
+  <si>
+    <t>Saltwater fish</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Seaweed</t>
+  </si>
+  <si>
+    <t>Iodized salt</t>
+  </si>
+  <si>
+    <t>Brazil nuts</t>
+  </si>
+  <si>
+    <t>Blue berries</t>
+  </si>
+  <si>
+    <t>Brown rice</t>
+  </si>
+  <si>
+    <t>oyesters</t>
+  </si>
+  <si>
+    <t>shellfish</t>
+  </si>
+  <si>
     <t>PCOS Recipes</t>
-  </si>
-  <si>
-    <t>Beetroot</t>
-  </si>
-  <si>
-    <t>Potassium rich foods</t>
-  </si>
-  <si>
-    <t>Celery</t>
-  </si>
-  <si>
-    <t>Kiwi</t>
-  </si>
-  <si>
-    <t>Dark chocolate (50-70%)</t>
-  </si>
-  <si>
-    <t>Watermelon</t>
-  </si>
-  <si>
-    <t>Garlic</t>
-  </si>
-  <si>
-    <t>Pomegranate</t>
-  </si>
-  <si>
-    <t>Cinnamon</t>
-  </si>
-  <si>
-    <t>Pistachios</t>
-  </si>
-  <si>
-    <t>Chia seeds</t>
-  </si>
-  <si>
-    <t>unsalted nuts</t>
-  </si>
-  <si>
-    <t>Low-fat yogurt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> blueberries</t>
-  </si>
-  <si>
-    <t>turkey</t>
-  </si>
-  <si>
-    <t>argula</t>
-  </si>
-  <si>
-    <t>cabbage</t>
-  </si>
-  <si>
-    <t>romaine</t>
-  </si>
-  <si>
-    <t>lettuce</t>
-  </si>
-  <si>
-    <t>mustard greens</t>
-  </si>
-  <si>
-    <t>broccoli fennel</t>
-  </si>
-  <si>
-    <t>fennel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kale</t>
-  </si>
-  <si>
-    <t>Bananas</t>
-  </si>
-  <si>
-    <t>Avocado</t>
-  </si>
-  <si>
-    <t>Tomato</t>
-  </si>
-  <si>
-    <t>Sweet potato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High fiber fruits </t>
-  </si>
-  <si>
-    <t>High fiber fruits vegetables</t>
-  </si>
-  <si>
-    <t>Saltwater fish</t>
-  </si>
-  <si>
-    <t>Chicken</t>
-  </si>
-  <si>
-    <t>Seaweed</t>
-  </si>
-  <si>
-    <t>Iodized salt</t>
-  </si>
-  <si>
-    <t>Brazil nuts</t>
-  </si>
-  <si>
-    <t>Blue berries</t>
-  </si>
-  <si>
-    <t>Brown rice</t>
-  </si>
-  <si>
-    <t>oyesters</t>
-  </si>
-  <si>
-    <t>shellfish</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1196,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1391,27 +1391,27 @@
     </row>
     <row r="4" spans="1:1" ht="27">
       <c r="A4" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="27">
       <c r="A7" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1421,27 +1421,27 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -1451,7 +1451,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -1461,7 +1461,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1471,17 +1471,17 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -1491,22 +1491,22 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -1516,17 +1516,17 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -1536,22 +1536,22 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1599,7 +1599,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1609,32 +1609,32 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1644,12 +1644,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -1682,12 +1682,12 @@
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1">
       <c r="A2" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
